--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N2">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O2">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P2">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q2">
-        <v>3.753396141306482</v>
+        <v>0.7703917054399999</v>
       </c>
       <c r="R2">
-        <v>3.753396141306482</v>
+        <v>6.93352534896</v>
       </c>
       <c r="S2">
-        <v>0.1204466025766995</v>
+        <v>0.01855601122434783</v>
       </c>
       <c r="T2">
-        <v>0.1204466025766995</v>
+        <v>0.02318419535991109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P3">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q3">
-        <v>3.32432302312249</v>
+        <v>0.6832011155946666</v>
       </c>
       <c r="R3">
-        <v>3.32432302312249</v>
+        <v>6.148810040352</v>
       </c>
       <c r="S3">
-        <v>0.1066776324502839</v>
+        <v>0.01645589831762401</v>
       </c>
       <c r="T3">
-        <v>0.1066776324502839</v>
+        <v>0.02056027865072798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N4">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O4">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P4">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q4">
-        <v>2.566454654787346</v>
+        <v>0.7088593932373333</v>
       </c>
       <c r="R4">
-        <v>2.566454654787346</v>
+        <v>6.379734539136</v>
       </c>
       <c r="S4">
-        <v>0.08235761219935958</v>
+        <v>0.01707391546990219</v>
       </c>
       <c r="T4">
-        <v>0.08235761219935958</v>
+        <v>0.02133243976989095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H5">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I5">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J5">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N5">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O5">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P5">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q5">
-        <v>3.012323921722048</v>
+        <v>0.6019976275413332</v>
       </c>
       <c r="R5">
-        <v>3.012323921722048</v>
+        <v>5.417978647872</v>
       </c>
       <c r="S5">
-        <v>0.09666557127797558</v>
+        <v>0.01449999351603578</v>
       </c>
       <c r="T5">
-        <v>0.09666557127797558</v>
+        <v>0.0181165379956291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H6">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I6">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J6">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N6">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O6">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P6">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q6">
-        <v>8.011655546511308</v>
+        <v>1.420467073536</v>
       </c>
       <c r="R6">
-        <v>8.011655546511308</v>
+        <v>8.522802441216001</v>
       </c>
       <c r="S6">
-        <v>0.2570942834869991</v>
+        <v>0.03421402745412006</v>
       </c>
       <c r="T6">
-        <v>0.2570942834869991</v>
+        <v>0.0284983910588453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H7">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J7">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N7">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O7">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P7">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q7">
-        <v>1.905771745811112</v>
+        <v>4.636460544215</v>
       </c>
       <c r="R7">
-        <v>1.905771745811112</v>
+        <v>41.728144897935</v>
       </c>
       <c r="S7">
-        <v>0.06115627645679683</v>
+        <v>0.1116759348422138</v>
       </c>
       <c r="T7">
-        <v>0.06115627645679683</v>
+        <v>0.1395298083774242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H8">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J8">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P8">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q8">
-        <v>1.687911601361372</v>
+        <v>4.111720042999666</v>
       </c>
       <c r="R8">
-        <v>1.687911601361372</v>
+        <v>37.00548038699699</v>
       </c>
       <c r="S8">
-        <v>0.05416513743284442</v>
+        <v>0.09903679223246772</v>
       </c>
       <c r="T8">
-        <v>0.05416513743284442</v>
+        <v>0.1237382490868349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H9">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J9">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N9">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O9">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P9">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q9">
-        <v>1.303106995334803</v>
+        <v>4.266139659777333</v>
       </c>
       <c r="R9">
-        <v>1.303106995334803</v>
+        <v>38.395256937996</v>
       </c>
       <c r="S9">
-        <v>0.04181674528161453</v>
+        <v>0.1027562146015719</v>
       </c>
       <c r="T9">
-        <v>0.04181674528161453</v>
+        <v>0.1283853585215494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H10">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I10">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J10">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N10">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O10">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P10">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q10">
-        <v>1.529495316540328</v>
+        <v>3.623011810871333</v>
       </c>
       <c r="R10">
-        <v>1.529495316540328</v>
+        <v>32.60710629784199</v>
       </c>
       <c r="S10">
-        <v>0.04908155377122857</v>
+        <v>0.08726553953495174</v>
       </c>
       <c r="T10">
-        <v>0.04908155377122857</v>
+        <v>0.1090310461825813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.036691</v>
+      </c>
+      <c r="H11">
+        <v>3.110073</v>
+      </c>
+      <c r="I11">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J11">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.246256000000001</v>
+      </c>
+      <c r="N11">
+        <v>16.492512</v>
+      </c>
+      <c r="O11">
+        <v>0.3394253941639908</v>
+      </c>
+      <c r="P11">
+        <v>0.2551519460641745</v>
+      </c>
+      <c r="Q11">
+        <v>8.548819378896001</v>
+      </c>
+      <c r="R11">
+        <v>51.292916273376</v>
+      </c>
+      <c r="S11">
+        <v>0.2059108207286781</v>
+      </c>
+      <c r="T11">
+        <v>0.1715123161177863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4999445</v>
+      </c>
+      <c r="H12">
+        <v>0.999889</v>
+      </c>
+      <c r="I12">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J12">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.472365</v>
+      </c>
+      <c r="N12">
+        <v>13.417095</v>
+      </c>
+      <c r="O12">
+        <v>0.1840876942178652</v>
+      </c>
+      <c r="P12">
+        <v>0.2075728609309428</v>
+      </c>
+      <c r="Q12">
+        <v>2.2359342837425</v>
+      </c>
+      <c r="R12">
+        <v>13.415605702455</v>
+      </c>
+      <c r="S12">
+        <v>0.05385574815130366</v>
+      </c>
+      <c r="T12">
+        <v>0.04485885719360746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H11">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I11">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J11">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.197167898282681</v>
-      </c>
-      <c r="N11">
-        <v>8.197167898282681</v>
-      </c>
-      <c r="O11">
-        <v>0.3876328685531971</v>
-      </c>
-      <c r="P11">
-        <v>0.3876328685531971</v>
-      </c>
-      <c r="Q11">
-        <v>4.067885776745514</v>
-      </c>
-      <c r="R11">
-        <v>4.067885776745514</v>
-      </c>
-      <c r="S11">
-        <v>0.1305385850661979</v>
-      </c>
-      <c r="T11">
-        <v>0.1305385850661979</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4999445</v>
+      </c>
+      <c r="H13">
+        <v>0.999889</v>
+      </c>
+      <c r="I13">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J13">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N13">
+        <v>11.898589</v>
+      </c>
+      <c r="O13">
+        <v>0.163253208943967</v>
+      </c>
+      <c r="P13">
+        <v>0.1840803959256042</v>
+      </c>
+      <c r="Q13">
+        <v>1.982878042770167</v>
+      </c>
+      <c r="R13">
+        <v>11.897268256621</v>
+      </c>
+      <c r="S13">
+        <v>0.04776051839387528</v>
+      </c>
+      <c r="T13">
+        <v>0.03978186818804134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4999445</v>
+      </c>
+      <c r="H14">
+        <v>0.999889</v>
+      </c>
+      <c r="I14">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J14">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.115150666666667</v>
+      </c>
+      <c r="N14">
+        <v>12.345452</v>
+      </c>
+      <c r="O14">
+        <v>0.1693843408545093</v>
+      </c>
+      <c r="P14">
+        <v>0.1909937129554221</v>
+      </c>
+      <c r="Q14">
+        <v>2.057346942471333</v>
+      </c>
+      <c r="R14">
+        <v>12.344081654828</v>
+      </c>
+      <c r="S14">
+        <v>0.04955421078303524</v>
+      </c>
+      <c r="T14">
+        <v>0.0412759146639817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4999445</v>
+      </c>
+      <c r="H15">
+        <v>0.999889</v>
+      </c>
+      <c r="I15">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J15">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.494784666666666</v>
+      </c>
+      <c r="N15">
+        <v>10.484354</v>
+      </c>
+      <c r="O15">
+        <v>0.1438493618196675</v>
+      </c>
+      <c r="P15">
+        <v>0.1622010841238564</v>
+      </c>
+      <c r="Q15">
+        <v>1.747198372784333</v>
+      </c>
+      <c r="R15">
+        <v>10.483190236706</v>
+      </c>
+      <c r="S15">
+        <v>0.04208382876868004</v>
+      </c>
+      <c r="T15">
+        <v>0.03505349994564599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4999445</v>
+      </c>
+      <c r="H16">
+        <v>0.999889</v>
+      </c>
+      <c r="I16">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J16">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.246256000000001</v>
+      </c>
+      <c r="N16">
+        <v>16.492512</v>
+      </c>
+      <c r="O16">
+        <v>0.3394253941639908</v>
+      </c>
+      <c r="P16">
+        <v>0.2551519460641745</v>
+      </c>
+      <c r="Q16">
+        <v>4.122670332792</v>
+      </c>
+      <c r="R16">
+        <v>16.490681331168</v>
+      </c>
+      <c r="S16">
+        <v>0.09930054598119267</v>
+      </c>
+      <c r="T16">
+        <v>0.0551412388875429</v>
       </c>
     </row>
   </sheetData>
